--- a/biology/Botanique/Pois_protéagineux/Pois_protéagineux.xlsx
+++ b/biology/Botanique/Pois_protéagineux/Pois_protéagineux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pois_prot%C3%A9agineux</t>
+          <t>Pois_protéagineux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les pois protéagineux sont des variétés de pois (Pisum sativum) cultivées surtout pour l'alimentation animale[1],[2]. Ces variétés ont été sélectionnées notamment pour la teneur élevée en protéines de leur graines.
-On cultive principalement des variétés de type « afila », porteuses d'un gène af qui provoque la transformation des folioles en vrilles, conférant à la culture une meilleure résistance à la verse et facilitant la récolte à la moissonneuse-batteuse[3]. Chez ces variétés, ce sont les stipules, très développées à la base de la feuille, qui assurent la photosynthèse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pois protéagineux sont des variétés de pois (Pisum sativum) cultivées surtout pour l'alimentation animale,. Ces variétés ont été sélectionnées notamment pour la teneur élevée en protéines de leur graines.
+On cultive principalement des variétés de type « afila », porteuses d'un gène af qui provoque la transformation des folioles en vrilles, conférant à la culture une meilleure résistance à la verse et facilitant la récolte à la moissonneuse-batteuse. Chez ces variétés, ce sont les stipules, très développées à la base de la feuille, qui assurent la photosynthèse.
 </t>
         </is>
       </c>
